--- a/data/trans_orig/P36B13_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_2023-Estudios-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+          <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>48,37%</t>
+          <t>48,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>54,03%</t>
+          <t>54,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>59,99%</t>
+          <t>59,84%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>49,81%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>54,64%</t>
+          <t>54,47%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>28,7%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>18,83%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>33,78%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>42,45%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>35,58%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>40,75%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>33,78%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>29,7%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>30,9%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,39%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>7,41%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>32,26%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>43,13%</t>
+          <t>42,84%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>51,16%</t>
+          <t>51,21%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>51,2%</t>
+          <t>50,98%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>44,95%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>50,03%</t>
+          <t>49,89%</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>21,18%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,68%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>42,26%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>34,68%</t>
+          <t>35,09%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>40,49%</t>
+          <t>40,39%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>33,96%</t>
+          <t>34,31%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>35,89%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>39,45%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,53%</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,13%</t>
         </is>
       </c>
     </row>
